--- a/excel/09_in_class_trading.xlsx
+++ b/excel/09_in_class_trading.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1938ACF8-7DFD-4344-BE93-A64752EFE251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5843B83-4290-44E6-A1C1-0734EFC7185C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{AAD483F3-72CF-426B-B5F0-00D45379506F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{AAD483F3-72CF-426B-B5F0-00D45379506F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Known Liquidity Shock" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Market</t>
   </si>
@@ -57,13 +58,34 @@
   </si>
   <si>
     <t>Highest Bid</t>
+  </si>
+  <si>
+    <t>Acceptable Haircut</t>
+  </si>
+  <si>
+    <t>True Value</t>
+  </si>
+  <si>
+    <t>Bid</t>
+  </si>
+  <si>
+    <t>Seller will accept greater than</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Actual Values</t>
+  </si>
+  <si>
+    <t>Bids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +95,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -109,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +150,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CFA70-9EAD-414C-8528-9068C9B02482}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -496,11 +532,11 @@
         <v>856</v>
       </c>
       <c r="F2">
-        <f>MAX(C2-B2,0)</f>
+        <f t="shared" ref="F2:F11" si="0">MAX(C2-B2,0)</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>MIN(B2-C2,0)</f>
+        <f t="shared" ref="G2:G11" si="1">MIN(B2-C2,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -512,11 +548,11 @@
         <v>315</v>
       </c>
       <c r="F3">
-        <f>MAX(C3-B3,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3">
-        <f>MIN(B3-C3,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -528,11 +564,11 @@
         <v>7</v>
       </c>
       <c r="F4">
-        <f>MAX(C4-B4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>MIN(B4-C4,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -544,11 +580,11 @@
         <v>920</v>
       </c>
       <c r="F5">
-        <f>MAX(C5-B5,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f>MIN(B5-C5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -560,11 +596,11 @@
         <v>26</v>
       </c>
       <c r="F6">
-        <f>MAX(C6-B6,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f>MIN(B6-C6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -576,11 +612,11 @@
         <v>518</v>
       </c>
       <c r="F7">
-        <f>MAX(C7-B7,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>MIN(B7-C7,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -592,11 +628,11 @@
         <v>768</v>
       </c>
       <c r="F8">
-        <f>MAX(C8-B8,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>MIN(B8-C8,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -608,11 +644,11 @@
         <v>936</v>
       </c>
       <c r="F9">
-        <f>MAX(C9-B9,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>MIN(B9-C9,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -624,11 +660,11 @@
         <v>131</v>
       </c>
       <c r="F10">
-        <f>MAX(C10-B10,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>MIN(B10-C10,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -640,11 +676,11 @@
         <v>721</v>
       </c>
       <c r="F11">
-        <f>MAX(C11-B11,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>MIN(B11-C11,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -654,4 +690,418 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C80AC8-EF58-455D-A5D5-EEA3769EB1CC}">
+  <dimension ref="B1:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <f>C2*C1</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <f>D8</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <f>H5+100</f>
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:Q5" si="0">I5+100</f>
+        <v>300</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>IF(C6&gt;$C$3,$C$2-C6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="6">
+        <f>C6+50</f>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D25" si="1">IF(C7&gt;$C$3,$C$2-C7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <f>G6+50</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:C26" si="2">C7+50</f>
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" ref="G8:G26" si="3">G7+50</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="6">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="6">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="6">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="6">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="6">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="6">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="6">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="6">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="6">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="6">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="6">
+        <f t="shared" si="2"/>
+        <v>700</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="6">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="6">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="6">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>-300</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="6">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>-350</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="6">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <f>IF(C26&gt;$C$3,$C$2-C26,0)</f>
+        <v>-400</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>